--- a/question_difficulty_level_result/2.xlsx
+++ b/question_difficulty_level_result/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -485,6 +510,11 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -510,7 +540,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -540,7 +591,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":3}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L1":0.375}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -570,7 +642,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"L3":12,"L2":12}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"L3":0.5,"L2":0.5}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -600,7 +693,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -630,7 +744,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -660,7 +795,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L3":12,"L2":12}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L3":0.5,"L2":0.5}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -690,7 +846,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -720,7 +897,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -750,7 +948,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L1":4,"L2":4}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L1":0.5,"L2":0.5}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -780,7 +999,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -810,7 +1050,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -840,7 +1101,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -870,7 +1152,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -900,7 +1203,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L1":7}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -930,7 +1254,28 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
